--- a/Cadastro Produtos.xlsx
+++ b/Cadastro Produtos.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e775ab26b5c1cdcb/Hashtag/Aulas Power BI/Power BI Impressionador/Módulo Power Query (Novo) - Backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e775ab26b5c1cdcb/Hashtag/Aulas Power BI/Power BI Impressionador/Hashtag Eletro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_FC6AF3798B78658470985F5E5199B4BA1B234724" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF42EA2B-46FC-4D65-8A92-912443A71C99}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_FC6AF3798B78658470985F5E5199B4BA1B234724" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B277D060-08A8-4EAF-9C97-B0E6EA62AE21}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,9 +45,6 @@
     <t>Produto</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -339,10 +336,13 @@
     <t>350.00</t>
   </si>
   <si>
+    <t>Tipo do Produto</t>
+  </si>
+  <si>
     <t>Observação</t>
   </si>
   <si>
-    <t>Conferir estoque</t>
+    <t>Conferir Estoque</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -466,9 +466,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,7 +749,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,538 +759,537 @@
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Cadastro Produtos.xlsx
+++ b/Cadastro Produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e775ab26b5c1cdcb/Hashtag/Aulas Power BI/Power BI Impressionador/Hashtag Eletro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alon Pinheiro\Desktop\Bases Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_FC6AF3798B78658470985F5E5199B4BA1B234724" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B277D060-08A8-4EAF-9C97-B0E6EA62AE21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE9A13A-8355-44DB-BA3A-8F76C78E9A3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Notebook</t>
   </si>
@@ -45,6 +50,21 @@
     <t>Produto</t>
   </si>
   <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+  </si>
+  <si>
+    <t>Smart TV 50' 4K</t>
+  </si>
+  <si>
+    <t>TV LED 32'</t>
+  </si>
+  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -57,33 +77,99 @@
     <t>Philco</t>
   </si>
   <si>
+    <t>Smart TV LED Full HD 55'</t>
+  </si>
+  <si>
+    <t>Smart TV 75' 4K</t>
+  </si>
+  <si>
+    <t>Custo Unitário</t>
+  </si>
+  <si>
+    <t>iPhone 6S</t>
+  </si>
+  <si>
+    <t>iPhone XS</t>
+  </si>
+  <si>
     <t>Apple</t>
   </si>
   <si>
     <t>Celular</t>
   </si>
   <si>
+    <t>Galaxy S8</t>
+  </si>
+  <si>
+    <t>Galaxy J8</t>
+  </si>
+  <si>
+    <t>Moto G7</t>
+  </si>
+  <si>
     <t>Motorola</t>
   </si>
   <si>
+    <t>Galaxy S10</t>
+  </si>
+  <si>
+    <t>Moto Z</t>
+  </si>
+  <si>
+    <t>Apple Watch</t>
+  </si>
+  <si>
+    <t>Smart Watch Galaxy</t>
+  </si>
+  <si>
+    <t>Smart Watch MI</t>
+  </si>
+  <si>
     <t>Xiaomi</t>
   </si>
   <si>
+    <t>Câmera Digital Rebel T6</t>
+  </si>
+  <si>
     <t>Canon</t>
   </si>
   <si>
+    <t>Câmera Coolpix L340</t>
+  </si>
+  <si>
     <t>Nikon</t>
   </si>
   <si>
+    <t>Câmera Digital Sony Cyber</t>
+  </si>
+  <si>
     <t>Sony</t>
   </si>
   <si>
+    <t>Inspiron 15</t>
+  </si>
+  <si>
     <t>Dell</t>
   </si>
   <si>
+    <t>Dell G7</t>
+  </si>
+  <si>
+    <t>Samsung Dual Core</t>
+  </si>
+  <si>
+    <t>Aspire 5</t>
+  </si>
+  <si>
     <t>Acer</t>
   </si>
   <si>
+    <t>Tablet M10 Android</t>
+  </si>
+  <si>
+    <t>iPad 32GB Wifi</t>
+  </si>
+  <si>
     <t>Smart Watch</t>
   </si>
   <si>
@@ -160,189 +246,6 @@
   </si>
   <si>
     <t>SKU</t>
-  </si>
-  <si>
-    <t>Preco Unitario</t>
-  </si>
-  <si>
-    <t>Custo Unitario</t>
-  </si>
-  <si>
-    <t>Smart TV 50' 4K - Preto</t>
-  </si>
-  <si>
-    <t>iPhone 7 - Dourado</t>
-  </si>
-  <si>
-    <t>Apple Watch - Preto</t>
-  </si>
-  <si>
-    <t>Galaxy S10 - Cinza</t>
-  </si>
-  <si>
-    <t>Câmera Digital Rebel T6 - Preto</t>
-  </si>
-  <si>
-    <t>TV LED 32' - Preto</t>
-  </si>
-  <si>
-    <t>Inspiron 15 - Prata</t>
-  </si>
-  <si>
-    <t>Smart TV LED Full HD 55' - Preto</t>
-  </si>
-  <si>
-    <t>iPhone 6S - Rosa</t>
-  </si>
-  <si>
-    <t>Tablet M10 Android - Preto</t>
-  </si>
-  <si>
-    <t>Dell G7 - Vermelho</t>
-  </si>
-  <si>
-    <t>Câmera Coolpix L340 - Cinza</t>
-  </si>
-  <si>
-    <t>Galaxy J8 - Roxo</t>
-  </si>
-  <si>
-    <t>Câmera Digital Sony Cyber - Azul</t>
-  </si>
-  <si>
-    <t>Smart Watch Galaxy - Azul</t>
-  </si>
-  <si>
-    <t>Smart TV 75' 4K - Preto</t>
-  </si>
-  <si>
-    <t>Smart Watch MI - Amarelo</t>
-  </si>
-  <si>
-    <t>iPhone XS - Preto</t>
-  </si>
-  <si>
-    <t>Moto Z - Vermelho</t>
-  </si>
-  <si>
-    <t>Galaxy S8 - Verde</t>
-  </si>
-  <si>
-    <t>iPad 32GB Wifi - Prata</t>
-  </si>
-  <si>
-    <t>Samsung Dual Core - Preto</t>
-  </si>
-  <si>
-    <t>Aspire 5 - Cinza</t>
-  </si>
-  <si>
-    <t>Moto G7 - Vermelho</t>
-  </si>
-  <si>
-    <t>2600.00</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>4500.00</t>
-  </si>
-  <si>
-    <t>1750.00</t>
-  </si>
-  <si>
-    <t>1500.00</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>2300.00</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>1900.00</t>
-  </si>
-  <si>
-    <t>5500.00</t>
-  </si>
-  <si>
-    <t>1550.00</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>700.00</t>
-  </si>
-  <si>
-    <t>1450.00</t>
-  </si>
-  <si>
-    <t>5200.00</t>
-  </si>
-  <si>
-    <t>1200.00</t>
-  </si>
-  <si>
-    <t>6500.00</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>750.00</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>1700.00</t>
-  </si>
-  <si>
-    <t>2800.00</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>850.00</t>
-  </si>
-  <si>
-    <t>1250.00</t>
-  </si>
-  <si>
-    <t>1150.00</t>
-  </si>
-  <si>
-    <t>3200.00</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>650.00</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>Tipo do Produto</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
-    <t>Conferir Estoque</t>
   </si>
 </sst>
 </file>
@@ -746,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,538 +661,509 @@
     <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="7" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E2" s="5">
+        <v>2600</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1750</v>
+      </c>
+      <c r="F5" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E7" s="8">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8" s="5">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1900</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E13" s="8">
+        <v>5500</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E14" s="5">
+        <v>1550</v>
+      </c>
+      <c r="F14" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="9">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E16" s="5">
+        <v>700</v>
+      </c>
+      <c r="F16" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1450</v>
+      </c>
+      <c r="F17" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="5">
+        <v>5200</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F19" s="9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>6500</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E23" s="8">
+        <v>750</v>
+      </c>
+      <c r="F23" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="E25" s="11">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
